--- a/export/excel_chart/excel/SQL_STAT-1.xlsx
+++ b/export/excel_chart/excel/SQL_STAT-1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,251 +510,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SYS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="E2" t="n">
-        <v>137</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>86535</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5586376</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45.27</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4081</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DBSNMP</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>488</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SYS</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>239</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>195</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58.75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>85.18000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>130798</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60.18</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6749315</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>61217</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93.70999999999999</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MAXGAUGE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2449</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M5" t="n">
-        <v>24</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DBSNMP</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>321</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
